--- a/biology/Microbiologie/Amphisiellidae/Amphisiellidae.xlsx
+++ b/biology/Microbiologie/Amphisiellidae/Amphisiellidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Amphisiellidae sont une famille de Ciliés de la classe des Hypotrichea et de l’ordre des Stichotrichida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Amphisiella, composé de amphisi, par allusion au genre Amphisia[note 1], et du suffixe ella, « petite », littéralement « petite Amphisia ».
 </t>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le  genre type Amphisiella a un corps allongé, ovale, aplati dorso-ventralement. La surface dorsale est convexe avec plusieurs rangées longitudinales de cils. La surface ventrale est aplatie portant deux rangées de cirres marginaux, une rangée de cirres ventraux, des cirres transversaux et une plaque de cirres frontaux parfois élargis. 
-Le genre a généralement deux macronoyaux mais ils sont parfois plus nombreux. La zone adorale asymétrique des membranelles (AZM) est courte, limité au quart antérieur du corps[1].
+Le genre a généralement deux macronoyaux mais ils sont parfois plus nombreux. La zone adorale asymétrique des membranelles (AZM) est courte, limité au quart antérieur du corps.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’espèce type Amphisiella marioni est une hypotriche benthique marine[1].
-La famille des Amphisiellidae est répartie dans toutes les mers du globe ainsi que sur tous les continents[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’espèce type Amphisiella marioni est une hypotriche benthique marine.
+La famille des Amphisiellidae est répartie dans toutes les mers du globe ainsi que sur tous les continents.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (11 mars 2023)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (11 mars 2023) :
 Afroamphisiella Foissner, Agatha &amp; Berger, 2002
 Amphisiella Gourret &amp; Roeser, 1888 genre type
 Espèce type : Amphisiella marioni Gourret &amp; Roeser, 1888
@@ -659,9 +679,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Amphisiellidae Jankowksi, 1979[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Amphisiellidae Jankowksi, 1979.
 </t>
         </is>
       </c>
